--- a/output/1Y_P26_KFSDIV.xlsx
+++ b/output/1Y_P26_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.8083</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>13.5636</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E3" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="F3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0177</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.1788</v>
       </c>
       <c r="C4" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D4" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E4" s="1">
-        <v>1461.4695</v>
+        <v>1458.5441</v>
       </c>
       <c r="F4" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6849</v>
+        <v>13.7123</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0284</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.5668</v>
       </c>
       <c r="C5" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D5" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E5" s="1">
-        <v>2220.2639</v>
+        <v>2215.8215</v>
       </c>
       <c r="F5" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="H5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5119</v>
+        <v>13.539</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1053</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.962</v>
       </c>
       <c r="C6" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D6" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E6" s="1">
-        <v>2906.7565</v>
+        <v>2900.9407</v>
       </c>
       <c r="F6" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="H6" s="1">
-        <v>40584.1343</v>
+        <v>40421.9985</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>40584.1343</v>
+        <v>40421.9985</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>13.761</v>
+        <v>13.7886</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9000.8812</v>
+        <v>-9002.880300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0415</v>
+        <v>-0.0424</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>12.2659</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E7" s="1">
-        <v>3622.9863</v>
+        <v>3615.737</v>
       </c>
       <c r="F7" s="1">
-        <v>826.9048</v>
+        <v>825.2264</v>
       </c>
       <c r="H7" s="1">
-        <v>44439.1873</v>
+        <v>44261.6833</v>
       </c>
       <c r="I7" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="J7" s="1">
-        <v>45438.306</v>
+        <v>45258.803</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.8008</v>
+        <v>13.8284</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10142.7313</v>
+        <v>-10142.4457</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1017</v>
+        <v>-0.1024</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.4103</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E8" s="1">
-        <v>4449.891</v>
+        <v>4440.9635</v>
       </c>
       <c r="F8" s="1">
-        <v>817.2833000000001</v>
+        <v>815.6238</v>
       </c>
       <c r="H8" s="1">
-        <v>55224.4828</v>
+        <v>55003.5532</v>
       </c>
       <c r="I8" s="1">
-        <v>856.3875</v>
+        <v>854.674</v>
       </c>
       <c r="J8" s="1">
-        <v>56080.8703</v>
+        <v>55858.2272</v>
       </c>
       <c r="K8" s="1">
-        <v>60142.7313</v>
+        <v>60142.4457</v>
       </c>
       <c r="L8" s="1">
-        <v>13.5156</v>
+        <v>13.5427</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10142.7313</v>
+        <v>-10142.4457</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0116</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>12.3976</v>
       </c>
       <c r="C9" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D9" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E9" s="1">
-        <v>5267.1744</v>
+        <v>5256.5873</v>
       </c>
       <c r="F9" s="1">
-        <v>818.1205</v>
+        <v>816.4643</v>
       </c>
       <c r="H9" s="1">
-        <v>65300.3209</v>
+        <v>65038.7037</v>
       </c>
       <c r="I9" s="1">
-        <v>713.6563</v>
+        <v>712.2284</v>
       </c>
       <c r="J9" s="1">
-        <v>66013.97719999999</v>
+        <v>65750.932</v>
       </c>
       <c r="K9" s="1">
-        <v>70285.46249999999</v>
+        <v>70284.8913</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3441</v>
+        <v>13.3708</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2002.451</v>
+        <v>1998.4336</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8140.2803</v>
+        <v>-8144.0121</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.9013</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E10" s="1">
-        <v>6085.2949</v>
+        <v>6073.0516</v>
       </c>
       <c r="F10" s="1">
-        <v>824.9759</v>
+        <v>823.2296</v>
       </c>
       <c r="H10" s="1">
-        <v>78508.21520000001</v>
+        <v>78193.5757</v>
       </c>
       <c r="I10" s="1">
-        <v>2573.376</v>
+        <v>2568.2162</v>
       </c>
       <c r="J10" s="1">
-        <v>81081.5912</v>
+        <v>80761.792</v>
       </c>
       <c r="K10" s="1">
-        <v>80428.19379999999</v>
+        <v>80427.337</v>
       </c>
       <c r="L10" s="1">
-        <v>13.2168</v>
+        <v>13.2433</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10643.344</v>
+        <v>-10642.0541</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0667</v>
+        <v>0.06610000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.3527</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E11" s="1">
-        <v>6910.2708</v>
+        <v>6896.2812</v>
       </c>
       <c r="F11" s="1">
-        <v>797.093</v>
+        <v>795.4</v>
       </c>
       <c r="H11" s="1">
-        <v>92270.773</v>
+        <v>91899.8435</v>
       </c>
       <c r="I11" s="1">
-        <v>1930.032</v>
+        <v>1926.1622</v>
       </c>
       <c r="J11" s="1">
-        <v>94200.8049</v>
+        <v>93826.00569999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91071.53780000001</v>
+        <v>91069.39109999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1792</v>
+        <v>13.2056</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10643.344</v>
+        <v>-10642.0541</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0342</v>
+        <v>0.0338</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>13.8804</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E12" s="1">
-        <v>7707.3638</v>
+        <v>7691.6812</v>
       </c>
       <c r="F12" s="1">
-        <v>766.7894</v>
+        <v>765.164</v>
       </c>
       <c r="H12" s="1">
-        <v>106981.2929</v>
+        <v>106549.783</v>
       </c>
       <c r="I12" s="1">
-        <v>1286.688</v>
+        <v>1284.1081</v>
       </c>
       <c r="J12" s="1">
-        <v>108267.9808</v>
+        <v>107833.8911</v>
       </c>
       <c r="K12" s="1">
-        <v>101714.8817</v>
+        <v>101711.4451</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1971</v>
+        <v>13.2236</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3109.6219</v>
+        <v>3103.3265</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7533.7221</v>
+        <v>-7538.7275</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.039</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>14.6268</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E13" s="1">
-        <v>8474.1533</v>
+        <v>8456.8452</v>
       </c>
       <c r="F13" s="1">
-        <v>940.258</v>
+        <v>937.8607</v>
       </c>
       <c r="H13" s="1">
-        <v>123949.7448</v>
+        <v>123449.6436</v>
       </c>
       <c r="I13" s="1">
-        <v>3752.9659</v>
+        <v>3745.3806</v>
       </c>
       <c r="J13" s="1">
-        <v>127702.7107</v>
+        <v>127195.0242</v>
       </c>
       <c r="K13" s="1">
-        <v>112358.2257</v>
+        <v>112353.4992</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2589</v>
+        <v>13.2855</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-13752.9659</v>
+        <v>-13745.3806</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0798</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>15.3636</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E14" s="1">
-        <v>9414.4113</v>
+        <v>9394.705900000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9414.4113</v>
+        <v>-9394.705900000001</v>
       </c>
       <c r="H14" s="1">
-        <v>144639.2489</v>
+        <v>144048.0867</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>144639.2489</v>
+        <v>144048.0867</v>
       </c>
       <c r="K14" s="1">
-        <v>126111.1916</v>
+        <v>126098.8798</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3955</v>
+        <v>13.4223</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>144639.2489</v>
+        <v>144048.0867</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0504</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.8083</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>13.5636</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E3" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="F3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0177</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.1788</v>
       </c>
       <c r="C4" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D4" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E4" s="1">
-        <v>1461.4695</v>
+        <v>1458.5441</v>
       </c>
       <c r="F4" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6849</v>
+        <v>13.7123</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0284</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.5668</v>
       </c>
       <c r="C5" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D5" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E5" s="1">
-        <v>2220.2639</v>
+        <v>2215.8215</v>
       </c>
       <c r="F5" s="1">
-        <v>525.7064</v>
+        <v>535.6453</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5119</v>
+        <v>13.539</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7657.8594</v>
+        <v>-7818.2794</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1053</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.962</v>
       </c>
       <c r="C6" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D6" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E6" s="1">
-        <v>2745.9703</v>
+        <v>2751.4669</v>
       </c>
       <c r="F6" s="1">
-        <v>835.1785</v>
+        <v>836.8524</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38339.2372</v>
+        <v>38339.2146</v>
       </c>
       <c r="I6" s="1">
-        <v>2342.1406</v>
+        <v>2181.7206</v>
       </c>
       <c r="J6" s="1">
-        <v>40681.3778</v>
+        <v>40520.9352</v>
       </c>
       <c r="K6" s="1">
-        <v>37657.8594</v>
+        <v>37818.2794</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7139</v>
+        <v>13.7448</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10661.6441</v>
+        <v>-10710.4458</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0392</v>
+        <v>-0.0401</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>12.2659</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E7" s="1">
-        <v>3581.1488</v>
+        <v>3588.3193</v>
       </c>
       <c r="F7" s="1">
-        <v>952.2739</v>
+        <v>933.3448</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>43926.0135</v>
+        <v>43926.0519</v>
       </c>
       <c r="I7" s="1">
-        <v>1680.4966</v>
+        <v>1471.2749</v>
       </c>
       <c r="J7" s="1">
-        <v>45606.51</v>
+        <v>45397.3268</v>
       </c>
       <c r="K7" s="1">
-        <v>49318.6222</v>
+        <v>49525.8448</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7717</v>
+        <v>13.802</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11680.4966</v>
+        <v>-11471.2749</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1001</v>
+        <v>-0.1014</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.4103</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E8" s="1">
-        <v>4533.4227</v>
+        <v>4521.6642</v>
       </c>
       <c r="F8" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56261.1363</v>
+        <v>56003.0713</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56261.1363</v>
+        <v>56003.0713</v>
       </c>
       <c r="K8" s="1">
-        <v>60999.1188</v>
+        <v>60997.1197</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4554</v>
+        <v>13.49</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0118</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>12.3976</v>
       </c>
       <c r="C9" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D9" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E9" s="1">
-        <v>5339.205</v>
+        <v>5325.833</v>
       </c>
       <c r="F9" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66193.3284</v>
+        <v>65895.46610000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66193.3284</v>
+        <v>65895.46610000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70999.1188</v>
+        <v>70997.1197</v>
       </c>
       <c r="L9" s="1">
-        <v>13.2977</v>
+        <v>13.3307</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2040.0402</v>
+        <v>2034.7489</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7959.9598</v>
+        <v>-7965.2511</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.9013</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E10" s="1">
-        <v>6145.8128</v>
+        <v>6130.8304</v>
       </c>
       <c r="F10" s="1">
-        <v>830.2284</v>
+        <v>859.1894</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>79288.9742</v>
+        <v>78937.50659999999</v>
       </c>
       <c r="I10" s="1">
-        <v>2040.0402</v>
+        <v>2034.7489</v>
       </c>
       <c r="J10" s="1">
-        <v>81329.0145</v>
+        <v>80972.2555</v>
       </c>
       <c r="K10" s="1">
-        <v>80999.1188</v>
+        <v>80997.1197</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1796</v>
+        <v>13.2114</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10711.1088</v>
+        <v>-11106.9135</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0674</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.3527</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E11" s="1">
-        <v>6976.0412</v>
+        <v>6990.0198</v>
       </c>
       <c r="F11" s="1">
-        <v>513.0809</v>
+        <v>514.1075</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93148.985</v>
+        <v>93149.0039</v>
       </c>
       <c r="I11" s="1">
-        <v>1328.9315</v>
+        <v>927.8354</v>
       </c>
       <c r="J11" s="1">
-        <v>94477.9164</v>
+        <v>94076.83930000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91710.22749999999</v>
+        <v>92104.0331</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1465</v>
+        <v>13.1765</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6851.015</v>
+        <v>-6878.5008</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0345</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>13.8804</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E12" s="1">
-        <v>7489.1221</v>
+        <v>7504.1273</v>
       </c>
       <c r="F12" s="1">
-        <v>435.7216</v>
+        <v>436.6203</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>103952.0097</v>
+        <v>103951.6734</v>
       </c>
       <c r="I12" s="1">
-        <v>4477.9164</v>
+        <v>4049.3346</v>
       </c>
       <c r="J12" s="1">
-        <v>108429.9262</v>
+        <v>108001.008</v>
       </c>
       <c r="K12" s="1">
-        <v>98561.2426</v>
+        <v>98982.534</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1606</v>
+        <v>13.1904</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3139.2185</v>
+        <v>3145.5089</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-2908.7718</v>
+        <v>-2927.0938</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0378</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>14.6268</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E13" s="1">
-        <v>7924.8437</v>
+        <v>7940.7476</v>
       </c>
       <c r="F13" s="1">
-        <v>279.2748</v>
+        <v>279.7818</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>115915.1033</v>
+        <v>115915.857</v>
       </c>
       <c r="I13" s="1">
-        <v>11569.1447</v>
+        <v>11122.2408</v>
       </c>
       <c r="J13" s="1">
-        <v>127484.248</v>
+        <v>127038.0978</v>
       </c>
       <c r="K13" s="1">
-        <v>104609.2329</v>
+        <v>105055.1366</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2002</v>
+        <v>13.2299</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4084.8967</v>
+        <v>-4100.5103</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0765</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>15.3636</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E14" s="1">
-        <v>8204.1185</v>
+        <v>8220.529399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8204.1185</v>
+        <v>-8220.529399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>126044.7945</v>
+        <v>126044.5553</v>
       </c>
       <c r="I14" s="1">
-        <v>17484.248</v>
+        <v>17021.7305</v>
       </c>
       <c r="J14" s="1">
-        <v>143529.0425</v>
+        <v>143066.2858</v>
       </c>
       <c r="K14" s="1">
-        <v>108694.1295</v>
+        <v>109155.6469</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2487</v>
+        <v>13.2784</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>126044.7945</v>
+        <v>126044.5553</v>
       </c>
       <c r="Q14" s="3">
         <v>0.044</v>
@@ -2224,16 +2224,16 @@
         <v>13.8083</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>13.5636</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E3" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="F3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0177</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.1788</v>
       </c>
       <c r="C4" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D4" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E4" s="1">
-        <v>1461.4695</v>
+        <v>1458.5441</v>
       </c>
       <c r="F4" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6849</v>
+        <v>13.7123</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0284</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.5668</v>
       </c>
       <c r="C5" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D5" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E5" s="1">
-        <v>2220.2639</v>
+        <v>2215.8215</v>
       </c>
       <c r="F5" s="1">
-        <v>546.3699</v>
+        <v>556.3502</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5119</v>
+        <v>13.539</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7958.8606</v>
+        <v>-8120.4877</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1053</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.962</v>
       </c>
       <c r="C6" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D6" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E6" s="1">
-        <v>2766.6338</v>
+        <v>2772.1718</v>
       </c>
       <c r="F6" s="1">
-        <v>850.506</v>
+        <v>852.2106</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38627.7411</v>
+        <v>38627.7184</v>
       </c>
       <c r="I6" s="1">
-        <v>2041.1394</v>
+        <v>1879.5123</v>
       </c>
       <c r="J6" s="1">
-        <v>40668.8805</v>
+        <v>40507.2307</v>
       </c>
       <c r="K6" s="1">
-        <v>37958.8606</v>
+        <v>38120.4877</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7202</v>
+        <v>13.7511</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10875.6464</v>
+        <v>-10925.3068</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0395</v>
+        <v>-0.0404</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>12.2659</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E7" s="1">
-        <v>3617.1398</v>
+        <v>3624.3824</v>
       </c>
       <c r="F7" s="1">
-        <v>910.2873</v>
+        <v>891.2742</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>44367.4754</v>
+        <v>44367.5142</v>
       </c>
       <c r="I7" s="1">
-        <v>1165.493</v>
+        <v>954.2055</v>
       </c>
       <c r="J7" s="1">
-        <v>45532.9684</v>
+        <v>45321.7198</v>
       </c>
       <c r="K7" s="1">
-        <v>49833.6258</v>
+        <v>50042.9142</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7771</v>
+        <v>13.8073</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-11165.493</v>
+        <v>-10954.2055</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1014</v>
+        <v>-0.1027</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.4103</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E8" s="1">
-        <v>4527.4271</v>
+        <v>4515.6566</v>
       </c>
       <c r="F8" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>56186.7289</v>
+        <v>55928.6643</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56186.7289</v>
+        <v>55928.6643</v>
       </c>
       <c r="K8" s="1">
-        <v>60999.1188</v>
+        <v>60997.1197</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4732</v>
+        <v>13.5079</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>12.3976</v>
       </c>
       <c r="C9" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D9" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E9" s="1">
-        <v>5333.2094</v>
+        <v>5319.8254</v>
       </c>
       <c r="F9" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>66118.99709999999</v>
+        <v>65821.13529999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66118.99709999999</v>
+        <v>65821.13529999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70999.1188</v>
+        <v>70997.1197</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3126</v>
+        <v>13.3458</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2037.3422</v>
+        <v>2032.0455</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7962.6578</v>
+        <v>-7967.9545</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.9013</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E10" s="1">
-        <v>6139.8172</v>
+        <v>6124.8228</v>
       </c>
       <c r="F10" s="1">
-        <v>933.026</v>
+        <v>930.7542</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>79211.62300000001</v>
+        <v>78860.1559</v>
       </c>
       <c r="I10" s="1">
-        <v>2037.3422</v>
+        <v>2032.0455</v>
       </c>
       <c r="J10" s="1">
-        <v>81248.96520000001</v>
+        <v>80892.2013</v>
       </c>
       <c r="K10" s="1">
-        <v>80999.1188</v>
+        <v>80997.1197</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1924</v>
+        <v>13.2244</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12037.3422</v>
+        <v>-12032.0455</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0674</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.3527</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E11" s="1">
-        <v>7072.8432</v>
+        <v>7055.577</v>
       </c>
       <c r="F11" s="1">
-        <v>587.0506</v>
+        <v>619.6642000000001</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94441.5533</v>
+        <v>94022.6188</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>94441.5533</v>
+        <v>94022.6188</v>
       </c>
       <c r="K11" s="1">
-        <v>93036.461</v>
+        <v>93029.1651</v>
       </c>
       <c r="L11" s="1">
-        <v>13.154</v>
+        <v>13.1852</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7838.7107</v>
+        <v>-8290.797399999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.035</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>13.8804</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E12" s="1">
-        <v>7659.8938</v>
+        <v>7675.2412</v>
       </c>
       <c r="F12" s="1">
-        <v>466.0727</v>
+        <v>467.0329</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>106322.39</v>
+        <v>106322.0461</v>
       </c>
       <c r="I12" s="1">
-        <v>2161.2893</v>
+        <v>1709.2026</v>
       </c>
       <c r="J12" s="1">
-        <v>108483.6793</v>
+        <v>108031.2487</v>
       </c>
       <c r="K12" s="1">
-        <v>100875.1717</v>
+        <v>101319.9625</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1693</v>
+        <v>13.2009</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3182.7794</v>
+        <v>3175.0096</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-3286.4959</v>
+        <v>-3320.5767</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0387</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>14.6268</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E13" s="1">
-        <v>8125.9665</v>
+        <v>8142.274</v>
       </c>
       <c r="F13" s="1">
-        <v>307.5681</v>
+        <v>308.1304</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>118856.8868</v>
+        <v>118857.6596</v>
       </c>
       <c r="I13" s="1">
-        <v>8874.793299999999</v>
+        <v>8388.625899999999</v>
       </c>
       <c r="J13" s="1">
-        <v>127731.6801</v>
+        <v>127246.2855</v>
       </c>
       <c r="K13" s="1">
-        <v>107344.4471</v>
+        <v>107815.5488</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2101</v>
+        <v>13.2415</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4498.7369</v>
+        <v>-4515.9898</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0781</v>
@@ -2854,34 +2854,34 @@
         <v>15.3636</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E14" s="1">
-        <v>8433.534600000001</v>
+        <v>8450.404399999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-8433.534600000001</v>
+        <v>-8450.404399999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129569.452</v>
+        <v>129569.2061</v>
       </c>
       <c r="I14" s="1">
-        <v>14376.0564</v>
+        <v>13872.6362</v>
       </c>
       <c r="J14" s="1">
-        <v>143945.5084</v>
+        <v>143441.8423</v>
       </c>
       <c r="K14" s="1">
-        <v>111843.184</v>
+        <v>112331.5386</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2617</v>
+        <v>13.293</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129569.452</v>
+        <v>129569.2061</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0451</v>
@@ -2992,16 +2992,16 @@
         <v>13.8083</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>13.5636</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E3" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="F3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0177</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.1788</v>
       </c>
       <c r="C4" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D4" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E4" s="1">
-        <v>1461.4695</v>
+        <v>1458.5441</v>
       </c>
       <c r="F4" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6849</v>
+        <v>13.7123</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0284</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.5668</v>
       </c>
       <c r="C5" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D5" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E5" s="1">
-        <v>2220.2639</v>
+        <v>2215.8215</v>
       </c>
       <c r="F5" s="1">
-        <v>567.1712</v>
+        <v>577.1932</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5119</v>
+        <v>13.539</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8261.8694</v>
+        <v>-8424.711600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1053</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.962</v>
       </c>
       <c r="C6" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D6" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E6" s="1">
-        <v>2787.4351</v>
+        <v>2793.0147</v>
       </c>
       <c r="F6" s="1">
-        <v>840.7199000000001</v>
+        <v>827.3973</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38918.1692</v>
+        <v>38918.1463</v>
       </c>
       <c r="I6" s="1">
-        <v>1738.1306</v>
+        <v>1575.2884</v>
       </c>
       <c r="J6" s="1">
-        <v>40656.2998</v>
+        <v>40493.4347</v>
       </c>
       <c r="K6" s="1">
-        <v>38261.8694</v>
+        <v>38424.7116</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7266</v>
+        <v>13.7574</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10739.0118</v>
+        <v>-10578.1687</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0398</v>
+        <v>-0.0407</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>12.2659</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E7" s="1">
-        <v>3628.155</v>
+        <v>3620.412</v>
       </c>
       <c r="F7" s="1">
-        <v>896.7233</v>
+        <v>894.7659</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>44502.5862</v>
+        <v>44318.9118</v>
       </c>
       <c r="I7" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="J7" s="1">
-        <v>45501.705</v>
+        <v>45316.0314</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7811</v>
+        <v>13.8106</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10999.1188</v>
+        <v>-10997.1197</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1018</v>
+        <v>-0.1025</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.4103</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E8" s="1">
-        <v>4524.8783</v>
+        <v>4515.1779</v>
       </c>
       <c r="F8" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>56155.0974</v>
+        <v>55922.7356</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56155.0974</v>
+        <v>55922.7356</v>
       </c>
       <c r="K8" s="1">
-        <v>60999.1188</v>
+        <v>60997.1197</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4808</v>
+        <v>13.5094</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>12.3976</v>
       </c>
       <c r="C9" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D9" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E9" s="1">
-        <v>5330.6606</v>
+        <v>5319.3467</v>
       </c>
       <c r="F9" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>66087.398</v>
+        <v>65815.2127</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66087.398</v>
+        <v>65815.2127</v>
       </c>
       <c r="K9" s="1">
-        <v>70999.1188</v>
+        <v>70997.1197</v>
       </c>
       <c r="L9" s="1">
-        <v>13.319</v>
+        <v>13.347</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2036.1952</v>
+        <v>2031.83</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7963.8048</v>
+        <v>-7968.17</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.9013</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E10" s="1">
-        <v>6137.2683</v>
+        <v>6124.3441</v>
       </c>
       <c r="F10" s="1">
-        <v>932.9371</v>
+        <v>930.7375</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79178.7401</v>
+        <v>78853.9926</v>
       </c>
       <c r="I10" s="1">
-        <v>2036.1952</v>
+        <v>2031.83</v>
       </c>
       <c r="J10" s="1">
-        <v>81214.9353</v>
+        <v>80885.8226</v>
       </c>
       <c r="K10" s="1">
-        <v>80999.1188</v>
+        <v>80997.1197</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1979</v>
+        <v>13.2254</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12036.1952</v>
+        <v>-12031.83</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0674</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.3527</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E11" s="1">
-        <v>7070.2055</v>
+        <v>7055.0816</v>
       </c>
       <c r="F11" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>94406.3328</v>
+        <v>94016.0178</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94406.3328</v>
+        <v>94016.0178</v>
       </c>
       <c r="K11" s="1">
-        <v>93035.314</v>
+        <v>93028.9497</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1588</v>
+        <v>13.1861</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.035</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>13.8804</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E12" s="1">
-        <v>7819.1177</v>
+        <v>7802.4937</v>
       </c>
       <c r="F12" s="1">
-        <v>514.0965</v>
+        <v>547.444</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>108532.4812</v>
+        <v>108084.8244</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>108532.4812</v>
+        <v>108084.8244</v>
       </c>
       <c r="K12" s="1">
-        <v>103035.314</v>
+        <v>103028.9497</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1774</v>
+        <v>13.2046</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3181.5925</v>
+        <v>3174.7867</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-3954.273</v>
+        <v>-4439.1734</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0395</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>14.6268</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E13" s="1">
-        <v>8333.2142</v>
+        <v>8349.9377</v>
       </c>
       <c r="F13" s="1">
-        <v>337.5155</v>
+        <v>338.1364</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>121888.2578</v>
+        <v>121889.0502</v>
       </c>
       <c r="I13" s="1">
-        <v>6045.727</v>
+        <v>5560.8266</v>
       </c>
       <c r="J13" s="1">
-        <v>127933.9847</v>
+        <v>127449.8768</v>
       </c>
       <c r="K13" s="1">
-        <v>110171.1795</v>
+        <v>110642.9099</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2207</v>
+        <v>13.2507</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4936.7724</v>
+        <v>-4955.7609</v>
       </c>
       <c r="Q13" s="3">
         <v>0.0793</v>
@@ -3622,34 +3622,34 @@
         <v>15.3636</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E14" s="1">
-        <v>8670.729799999999</v>
+        <v>8688.0741</v>
       </c>
       <c r="F14" s="1">
-        <v>-8670.729799999999</v>
+        <v>-8688.0741</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>133213.6238</v>
+        <v>133213.371</v>
       </c>
       <c r="I14" s="1">
-        <v>11108.9546</v>
+        <v>10605.0657</v>
       </c>
       <c r="J14" s="1">
-        <v>144322.5784</v>
+        <v>143818.4367</v>
       </c>
       <c r="K14" s="1">
-        <v>115107.9519</v>
+        <v>115598.6707</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2755</v>
+        <v>13.3054</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133213.6238</v>
+        <v>133213.371</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0463</v>
@@ -3760,16 +3760,16 @@
         <v>13.8083</v>
       </c>
       <c r="C2" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D2" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>13.5636</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D3" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E3" s="1">
-        <v>724.2021</v>
+        <v>722.7522</v>
       </c>
       <c r="F3" s="1">
-        <v>737.2674</v>
+        <v>735.7919000000001</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9822.787700000001</v>
+        <v>9783.5357</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0177</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.1788</v>
       </c>
       <c r="C4" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D4" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E4" s="1">
-        <v>1461.4695</v>
+        <v>1458.5441</v>
       </c>
       <c r="F4" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19260.4143</v>
+        <v>19183.3554</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.6849</v>
+        <v>13.7123</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0284</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.5668</v>
       </c>
       <c r="C5" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D5" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E5" s="1">
-        <v>2220.2639</v>
+        <v>2215.8215</v>
       </c>
       <c r="F5" s="1">
-        <v>588.1109</v>
+        <v>598.1747</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>32342.1406</v>
+        <v>32212.9487</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.5119</v>
+        <v>13.539</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8566.893099999999</v>
+        <v>-8730.9586</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.1053</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.962</v>
       </c>
       <c r="C6" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D6" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E6" s="1">
-        <v>2808.3748</v>
+        <v>2813.9963</v>
       </c>
       <c r="F6" s="1">
-        <v>818.8731</v>
+        <v>805.5069</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39210.5287</v>
+        <v>39210.5056</v>
       </c>
       <c r="I6" s="1">
-        <v>1433.1069</v>
+        <v>1269.0414</v>
       </c>
       <c r="J6" s="1">
-        <v>40643.6355</v>
+        <v>40479.547</v>
       </c>
       <c r="K6" s="1">
-        <v>38566.8931</v>
+        <v>38730.9586</v>
       </c>
       <c r="L6" s="1">
-        <v>13.7328</v>
+        <v>13.7637</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10433.9881</v>
+        <v>-10271.9217</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0401</v>
+        <v>-0.0411</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>12.2659</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E7" s="1">
-        <v>3627.2479</v>
+        <v>3619.5032</v>
       </c>
       <c r="F7" s="1">
-        <v>896.7233</v>
+        <v>894.7659</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>44491.4603</v>
+        <v>44307.7861</v>
       </c>
       <c r="I7" s="1">
-        <v>999.1188</v>
+        <v>997.1197</v>
       </c>
       <c r="J7" s="1">
-        <v>45490.5791</v>
+        <v>45304.9058</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>13.7846</v>
+        <v>13.8141</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10999.1188</v>
+        <v>-10997.1197</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.1018</v>
+        <v>-0.1025</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.4103</v>
       </c>
       <c r="C8" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D8" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E8" s="1">
-        <v>4523.9713</v>
+        <v>4514.269</v>
       </c>
       <c r="F8" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>56143.8406</v>
+        <v>55911.479</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>56143.8406</v>
+        <v>55911.479</v>
       </c>
       <c r="K8" s="1">
-        <v>60999.1188</v>
+        <v>60997.1197</v>
       </c>
       <c r="L8" s="1">
-        <v>13.4835</v>
+        <v>13.5121</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0118</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>12.3976</v>
       </c>
       <c r="C9" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D9" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E9" s="1">
-        <v>5329.7536</v>
+        <v>5318.4378</v>
       </c>
       <c r="F9" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>66076.15270000001</v>
+        <v>65803.9676</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>66076.15270000001</v>
+        <v>65803.9676</v>
       </c>
       <c r="K9" s="1">
-        <v>70999.1188</v>
+        <v>70997.1197</v>
       </c>
       <c r="L9" s="1">
-        <v>13.3213</v>
+        <v>13.3492</v>
       </c>
       <c r="M9" s="1">
         <v>0.5</v>
       </c>
       <c r="N9" s="1">
-        <v>2035.7871</v>
+        <v>2031.4211</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7964.2129</v>
+        <v>-7968.5789</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.001</v>
+        <v>-0.0016</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.9013</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E10" s="1">
-        <v>6136.3613</v>
+        <v>6123.4353</v>
       </c>
       <c r="F10" s="1">
-        <v>932.9055</v>
+        <v>930.7059</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>79167.0379</v>
+        <v>78842.2907</v>
       </c>
       <c r="I10" s="1">
-        <v>2035.7871</v>
+        <v>2031.4211</v>
       </c>
       <c r="J10" s="1">
-        <v>81202.82490000001</v>
+        <v>80873.7117</v>
       </c>
       <c r="K10" s="1">
-        <v>80999.1188</v>
+        <v>80997.1197</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1999</v>
+        <v>13.2274</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-12035.7871</v>
+        <v>-12031.4211</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0674</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.3527</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E11" s="1">
-        <v>7069.2668</v>
+        <v>7054.1411</v>
       </c>
       <c r="F11" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>94393.7987</v>
+        <v>94003.48480000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>94393.7987</v>
+        <v>94003.48480000001</v>
       </c>
       <c r="K11" s="1">
-        <v>93034.90579999999</v>
+        <v>93028.5408</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1605</v>
+        <v>13.1878</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.035</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>13.8804</v>
       </c>
       <c r="C12" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D12" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E12" s="1">
-        <v>7818.179</v>
+        <v>7801.5532</v>
       </c>
       <c r="F12" s="1">
-        <v>720.4403</v>
+        <v>719.0003</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>108519.4517</v>
+        <v>108071.7962</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>108519.4517</v>
+        <v>108071.7962</v>
       </c>
       <c r="K12" s="1">
-        <v>103034.9058</v>
+        <v>103028.5408</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1789</v>
+        <v>13.2062</v>
       </c>
       <c r="M12" s="1">
         <v>0.5</v>
       </c>
       <c r="N12" s="1">
-        <v>3181.1701</v>
+        <v>3174.3635</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6818.8299</v>
+        <v>-6825.6365</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0395</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>14.6268</v>
       </c>
       <c r="C13" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D13" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E13" s="1">
-        <v>8538.6193</v>
+        <v>8520.5535</v>
       </c>
       <c r="F13" s="1">
-        <v>377.351</v>
+        <v>413.2516</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124892.6772</v>
+        <v>124379.6322</v>
       </c>
       <c r="I13" s="1">
-        <v>3181.1701</v>
+        <v>3174.3635</v>
       </c>
       <c r="J13" s="1">
-        <v>128073.8473</v>
+        <v>127553.9957</v>
       </c>
       <c r="K13" s="1">
-        <v>113034.9058</v>
+        <v>113028.5408</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2381</v>
+        <v>13.2654</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-5519.4371</v>
+        <v>-6056.6574</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0806</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>15.3636</v>
       </c>
       <c r="C14" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D14" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E14" s="1">
-        <v>8915.970300000001</v>
+        <v>8933.805200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8915.970300000001</v>
+        <v>-8933.805200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>136981.4012</v>
+        <v>136981.1412</v>
       </c>
       <c r="I14" s="1">
-        <v>7661.7329</v>
+        <v>7117.7062</v>
       </c>
       <c r="J14" s="1">
-        <v>144643.1342</v>
+        <v>144098.8474</v>
       </c>
       <c r="K14" s="1">
-        <v>118554.3429</v>
+        <v>119085.1981</v>
       </c>
       <c r="L14" s="1">
-        <v>13.2969</v>
+        <v>13.3297</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136981.4012</v>
+        <v>136981.1412</v>
       </c>
       <c r="Q14" s="3">
         <v>0.0476</v>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.3955</v>
+        <v>13.4223</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2487</v>
+        <v>13.2784</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2617</v>
+        <v>13.293</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2755</v>
+        <v>13.3054</v>
       </c>
       <c r="G3" s="1">
-        <v>13.2969</v>
+        <v>13.3297</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.1263</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1967</v>
+        <v>0.1841</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1908</v>
+        <v>0.1789</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1934</v>
+        <v>0.1812</v>
       </c>
       <c r="F4" s="3">
-        <v>0.1959</v>
+        <v>0.184</v>
       </c>
       <c r="G4" s="3">
-        <v>0.1982</v>
+        <v>0.1859</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1933</v>
       </c>
       <c r="C5" s="3">
+        <v>0.1938</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1907</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1924</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.193</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.1893</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.191</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.192</v>
-      </c>
       <c r="G5" s="3">
-        <v>0.1927</v>
+        <v>0.1937</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.548</v>
       </c>
       <c r="C6" s="4">
-        <v>0.9137999999999999</v>
+        <v>0.8452</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9004</v>
+        <v>0.8316</v>
       </c>
       <c r="E6" s="4">
-        <v>0.9061</v>
+        <v>0.8361</v>
       </c>
       <c r="F6" s="4">
-        <v>0.9147999999999999</v>
+        <v>0.8477</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9231</v>
+        <v>0.8551</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.406</v>
+        <v>0.3958</v>
       </c>
       <c r="D7" s="3">
-        <v>0.4014</v>
+        <v>0.3921</v>
       </c>
       <c r="E7" s="3">
-        <v>0.4034</v>
+        <v>0.3935</v>
       </c>
       <c r="F7" s="3">
-        <v>0.4054</v>
+        <v>0.396</v>
       </c>
       <c r="G7" s="3">
-        <v>0.4076</v>
+        <v>0.3978</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>6111.1916</v>
+        <v>6098.8798</v>
       </c>
       <c r="D8" s="1">
-        <v>6178.3775</v>
+        <v>6177.3775</v>
       </c>
       <c r="E8" s="1">
-        <v>6219.2404</v>
+        <v>6204.1748</v>
       </c>
       <c r="F8" s="1">
-        <v>6216.9065</v>
+        <v>6203.7365</v>
       </c>
       <c r="G8" s="1">
-        <v>6216.0759</v>
+        <v>6202.9043</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P26_KFSDIV.xlsx
+++ b/output/1Y_P26_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>7551.7135</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1421</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.3229</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.29</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.2572</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
